--- a/sofaplayer/La_Liga/Atlético Madrid_stats.xlsx
+++ b/sofaplayer/La_Liga/Atlético Madrid_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>944656</v>
       </c>
       <c r="E2" t="n">
-        <v>6.9478260869565</v>
+        <v>6.9291666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>1643</v>
+        <v>1677</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>6.8762</v>
       </c>
       <c r="L2" t="n">
-        <v>234.71428571429</v>
+        <v>239.57142857143</v>
       </c>
       <c r="M2" t="n">
         <v>46</v>
@@ -1101,34 +1101,34 @@
         <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.15590242</v>
+        <v>4.32912842</v>
       </c>
       <c r="AB2" t="n">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE2" t="n">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AF2" t="n">
-        <v>82.952548330404</v>
+        <v>82.69896193771601</v>
       </c>
       <c r="AG2" t="n">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="AH2" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AI2" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AJ2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK2" t="n">
         <v>19</v>
@@ -1137,10 +1137,10 @@
         <v>70.37037037037</v>
       </c>
       <c r="AM2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN2" t="n">
-        <v>31.578947368421</v>
+        <v>30.864197530864</v>
       </c>
       <c r="AO2" t="n">
         <v>2</v>
@@ -1176,19 +1176,19 @@
         <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51.162790697674</v>
+        <v>50</v>
       </c>
       <c r="BA2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB2" t="n">
-        <v>38.157894736842</v>
+        <v>38.311688311688</v>
       </c>
       <c r="BC2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD2" t="n">
-        <v>41.085271317829</v>
+        <v>41.221374045802</v>
       </c>
       <c r="BE2" t="n">
         <v>5</v>
@@ -1197,13 +1197,13 @@
         <v>21.739130434783</v>
       </c>
       <c r="BG2" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="BH2" t="n">
         <v>13</v>
       </c>
       <c r="BI2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ2" t="n">
         <v>1</v>
@@ -1221,22 +1221,22 @@
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>159.8</v>
+        <v>166.3</v>
       </c>
       <c r="BR2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS2" t="n">
         <v>10</v>
       </c>
       <c r="BT2" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK2" t="n">
         <v>2</v>
@@ -1308,16 +1308,16 @@
         <v>28.571428571429</v>
       </c>
       <c r="CR2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CS2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CT2" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="CU2" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CV2" t="n">
         <v>18</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="DG2" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>824200</v>
       </c>
       <c r="E4" t="n">
-        <v>6.3</v>
+        <v>6.45</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0599433</v>
+        <v>0.06222956</v>
       </c>
       <c r="AB4" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1825,22 +1825,22 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>90.90909090909101</v>
+        <v>84.615384615385</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1885,22 +1885,22 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BC4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD4" t="n">
-        <v>20</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BH4" t="n">
         <v>1</v>
@@ -1933,22 +1933,22 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>6.3</v>
+        <v>12.9</v>
       </c>
       <c r="BR4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK4" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="CS4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU4" t="n">
         <v>4</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="DG4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>309078</v>
       </c>
       <c r="E5" t="n">
-        <v>6.7136363636364</v>
+        <v>6.6913043478261</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1133</v>
+        <v>1223</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>5.5282</v>
       </c>
       <c r="L5" t="n">
-        <v>161.85714285714</v>
+        <v>174.71428571429</v>
       </c>
       <c r="M5" t="n">
         <v>39</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.65981675</v>
+        <v>0.6681361099999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -2181,22 +2181,22 @@
         <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="AF5" t="n">
-        <v>65.77946768060799</v>
+        <v>66.187050359712</v>
       </c>
       <c r="AG5" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AI5" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AJ5" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="n">
         <v>2</v>
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>18.181818181818</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="AR5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS5" t="n">
         <v>4</v>
@@ -2244,34 +2244,34 @@
         <v>8</v>
       </c>
       <c r="AZ5" t="n">
-        <v>44.444444444444</v>
+        <v>42.105263157895</v>
       </c>
       <c r="BA5" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BB5" t="n">
-        <v>49.142857142857</v>
+        <v>48.087431693989</v>
       </c>
       <c r="BC5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD5" t="n">
-        <v>32</v>
+        <v>31.645569620253</v>
       </c>
       <c r="BE5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BF5" t="n">
-        <v>62</v>
+        <v>60.576923076923</v>
       </c>
       <c r="BG5" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="BH5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ5" t="n">
         <v>7</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>147.7</v>
+        <v>153.9</v>
       </c>
       <c r="BR5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS5" t="n">
         <v>7</v>
       </c>
       <c r="BT5" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="BU5" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="CB5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CC5" t="n">
         <v>6</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CK5" t="n">
         <v>2</v>
@@ -2379,16 +2379,16 @@
         <v>8</v>
       </c>
       <c r="CS5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CU5" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="CV5" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="DG5" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>944660</v>
       </c>
       <c r="E6" t="n">
-        <v>6.9866666666667</v>
+        <v>6.98125</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>612</v>
+        <v>702</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -2477,13 +2477,13 @@
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.982</v>
+        <v>3.1573</v>
       </c>
       <c r="L6" t="n">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="M6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
         <v>9</v>
@@ -2492,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>21.428571428571</v>
+        <v>20</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2525,67 +2525,67 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.12370364</v>
+        <v>1.20992304</v>
       </c>
       <c r="AB6" t="n">
-        <v>464</v>
+        <v>546</v>
       </c>
       <c r="AC6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="AF6" t="n">
-        <v>86.324786324786</v>
+        <v>86.585365853659</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="AH6" t="n">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AI6" t="n">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>61.904761904762</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="AM6" t="n">
         <v>2</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.764705882353</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="AO6" t="n">
         <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
         <v>66.666666666667</v>
       </c>
       <c r="BA6" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BB6" t="n">
-        <v>53.125</v>
+        <v>52</v>
       </c>
       <c r="BC6" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="BD6" t="n">
-        <v>58.490566037736</v>
+        <v>56.25</v>
       </c>
       <c r="BE6" t="n">
         <v>3</v>
@@ -2621,13 +2621,13 @@
         <v>27.272727272727</v>
       </c>
       <c r="BG6" t="n">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="BH6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ6" t="n">
         <v>2</v>
@@ -2645,22 +2645,22 @@
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>104.8</v>
+        <v>111.7</v>
       </c>
       <c r="BR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS6" t="n">
         <v>4</v>
       </c>
       <c r="BT6" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2678,70 +2678,70 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CA6" t="n">
         <v>2</v>
       </c>
       <c r="CB6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CC6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CD6" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
         <v>14</v>
       </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>11</v>
-      </c>
       <c r="CS6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CT6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="CU6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="CV6" t="n">
         <v>8</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="DA6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DB6" t="n">
-        <v>75</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="DG6" t="n">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>901325</v>
       </c>
       <c r="E7" t="n">
-        <v>6.7941176470588</v>
+        <v>6.75</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>1042</v>
+        <v>1132</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2833,22 +2833,22 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3979</v>
+        <v>2.6751</v>
       </c>
       <c r="L7" t="n">
-        <v>1042</v>
+        <v>1132</v>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>3.3333333333333</v>
+        <v>2.9411764705882</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2875,112 +2875,112 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.74074077</v>
+        <v>1.79191757</v>
       </c>
       <c r="AB7" t="n">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="AC7" t="n">
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="AF7" t="n">
-        <v>74.015748031496</v>
+        <v>74.056603773585</v>
       </c>
       <c r="AG7" t="n">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="AH7" t="n">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="n">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="AJ7" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>51.724137931034</v>
+        <v>51.428571428571</v>
       </c>
       <c r="AM7" t="n">
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.523809523809501</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
       </c>
       <c r="AR7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AS7" t="n">
         <v>13</v>
       </c>
       <c r="AT7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
         <v>17</v>
       </c>
-      <c r="AU7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>44.117647058824</v>
+        <v>44.736842105263</v>
       </c>
       <c r="BA7" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="BB7" t="n">
-        <v>51.764705882353</v>
+        <v>51.381215469613</v>
       </c>
       <c r="BC7" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>42.477876106195</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BE7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BF7" t="n">
-        <v>70.17543859649101</v>
+        <v>67.741935483871</v>
       </c>
       <c r="BG7" t="n">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="BH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI7" t="n">
         <v>18</v>
@@ -3001,28 +3001,28 @@
         <v>1</v>
       </c>
       <c r="BO7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>115.5</v>
+        <v>121.5</v>
       </c>
       <c r="BR7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS7" t="n">
         <v>1</v>
       </c>
       <c r="BT7" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="CA7" t="n">
         <v>9</v>
@@ -3043,10 +3043,10 @@
         <v>16</v>
       </c>
       <c r="CC7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CD7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -3088,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS7" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="CT7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="CU7" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="CV7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="DA7" t="n">
         <v>10</v>
       </c>
       <c r="DB7" t="n">
-        <v>66.666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="DG7" t="n">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>910031</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0571428571429</v>
+        <v>7.0133333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>779</v>
+        <v>835</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3545,13 +3545,13 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1.3393</v>
+        <v>1.35</v>
       </c>
       <c r="L9" t="n">
-        <v>389.5</v>
+        <v>417.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N9" t="n">
         <v>5</v>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>15.384615384615</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.27362183</v>
+        <v>2.50435983</v>
       </c>
       <c r="AB9" t="n">
-        <v>560</v>
+        <v>601</v>
       </c>
       <c r="AC9" t="n">
         <v>6</v>
@@ -3605,34 +3605,34 @@
         <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="AF9" t="n">
-        <v>82.471264367816</v>
+        <v>82.62032085561501</v>
       </c>
       <c r="AG9" t="n">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="AH9" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AI9" t="n">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AJ9" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>62.5</v>
+        <v>61.538461538462</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>27.142857142857</v>
+        <v>26.923076923077</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -3644,10 +3644,10 @@
         <v>4</v>
       </c>
       <c r="AR9" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AS9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -3665,22 +3665,22 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ9" t="n">
-        <v>33.333333333333</v>
+        <v>36</v>
       </c>
       <c r="BA9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BB9" t="n">
-        <v>38.383838383838</v>
+        <v>37.864077669903</v>
       </c>
       <c r="BC9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BD9" t="n">
-        <v>42.682926829268</v>
+        <v>41.860465116279</v>
       </c>
       <c r="BE9" t="n">
         <v>3</v>
@@ -3689,10 +3689,10 @@
         <v>17.647058823529</v>
       </c>
       <c r="BG9" t="n">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="BH9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI9" t="n">
         <v>16</v>
@@ -3713,28 +3713,28 @@
         <v>1</v>
       </c>
       <c r="BO9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>98.8</v>
+        <v>105.2</v>
       </c>
       <c r="BR9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS9" t="n">
         <v>3</v>
       </c>
       <c r="BT9" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -3749,34 +3749,34 @@
         <v>8</v>
       </c>
       <c r="CA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>30</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
         <v>5</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>28</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>3</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -3803,13 +3803,13 @@
         <v>22</v>
       </c>
       <c r="CS9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CT9" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="CU9" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="CV9" t="n">
         <v>14</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="DA9" t="n">
         <v>6</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="DG9" t="n">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>990169</v>
       </c>
       <c r="E12" t="n">
-        <v>6.975</v>
+        <v>6.8777777777778</v>
       </c>
       <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
         <v>8</v>
       </c>
-      <c r="G12" t="n">
-        <v>7</v>
-      </c>
       <c r="H12" t="n">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.24043804</v>
+        <v>0.26567954</v>
       </c>
       <c r="AB12" t="n">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
@@ -4673,28 +4673,28 @@
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="AF12" t="n">
-        <v>88.27838827838799</v>
+        <v>88.273615635179</v>
       </c>
       <c r="AG12" t="n">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="AH12" t="n">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AI12" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>76</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -4706,16 +4706,16 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
         <v>10</v>
@@ -4739,37 +4739,37 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA12" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BB12" t="n">
-        <v>50.649350649351</v>
+        <v>49.411764705882</v>
       </c>
       <c r="BC12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BD12" t="n">
-        <v>52.727272727273</v>
+        <v>50</v>
       </c>
       <c r="BE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF12" t="n">
-        <v>45.454545454545</v>
+        <v>47.826086956522</v>
       </c>
       <c r="BG12" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="BH12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
@@ -4781,22 +4781,22 @@
         <v>1</v>
       </c>
       <c r="BO12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>55.8</v>
+        <v>61.9</v>
       </c>
       <c r="BR12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4820,13 +4820,13 @@
         <v>2</v>
       </c>
       <c r="CB12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CD12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CK12" t="n">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="CU12" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="CV12" t="n">
         <v>12</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="DA12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DB12" t="n">
-        <v>42.857142857143</v>
+        <v>45.454545454545</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,16 +4910,16 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="DG12" t="n">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ12" t="n">
         <v>2147919</v>
@@ -4954,13 +4954,13 @@
         <v>6.6</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0130655</v>
+        <v>0.01469497</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5027,247 +5027,247 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>5</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>100</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="n">
         <v>12</v>
       </c>
-      <c r="AF13" t="n">
-        <v>85.71428571428601</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>3</v>
-      </c>
-      <c r="DA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>3</v>
-      </c>
       <c r="DG13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>1391752</v>
       </c>
       <c r="E14" t="n">
-        <v>6.5764705882353</v>
+        <v>6.5777777777778</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>845</v>
+        <v>901</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0.6602</v>
       </c>
       <c r="L14" t="n">
-        <v>845</v>
+        <v>901</v>
       </c>
       <c r="M14" t="n">
         <v>12</v>
@@ -5371,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.87948408</v>
+        <v>0.89637098</v>
       </c>
       <c r="AB14" t="n">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
@@ -5383,52 +5383,52 @@
         <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="AF14" t="n">
-        <v>85.874439461883</v>
+        <v>85.987261146497</v>
       </c>
       <c r="AG14" t="n">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="AH14" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AI14" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AJ14" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>64.28571428571399</v>
+        <v>65.51724137930999</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>37.5</v>
+        <v>35.294117647059</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -5449,37 +5449,37 @@
         <v>50</v>
       </c>
       <c r="BA14" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="BB14" t="n">
-        <v>40</v>
+        <v>41.322314049587</v>
       </c>
       <c r="BC14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BD14" t="n">
-        <v>44.329896907216</v>
+        <v>44.554455445545</v>
       </c>
       <c r="BE14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF14" t="n">
-        <v>16.666666666667</v>
+        <v>25</v>
       </c>
       <c r="BG14" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="BH14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ14" t="n">
         <v>2</v>
       </c>
       <c r="BK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5491,22 +5491,22 @@
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>111.8</v>
+        <v>118.4</v>
       </c>
       <c r="BR14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS14" t="n">
         <v>1</v>
       </c>
       <c r="BT14" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CK14" t="n">
         <v>2</v>
@@ -5584,10 +5584,10 @@
         <v>30</v>
       </c>
       <c r="CT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CU14" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CV14" t="n">
         <v>15</v>
@@ -5602,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="DA14" t="n">
         <v>8</v>
       </c>
       <c r="DB14" t="n">
-        <v>66.666666666667</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5620,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="DG14" t="n">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>965011</v>
       </c>
       <c r="E15" t="n">
-        <v>6.81875</v>
+        <v>6.7764705882353</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>999</v>
+        <v>1055</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5727,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.64867183</v>
+        <v>1.66894583</v>
       </c>
       <c r="AB15" t="n">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -5739,22 +5739,22 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="AF15" t="n">
-        <v>87.920792079208</v>
+        <v>88.045540796964</v>
       </c>
       <c r="AG15" t="n">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="AH15" t="n">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AI15" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AJ15" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -5763,28 +5763,28 @@
         <v>63.157894736842</v>
       </c>
       <c r="AM15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN15" t="n">
-        <v>37.5</v>
+        <v>37.254901960784</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
         <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AU15" t="n">
         <v>1</v>
@@ -5805,16 +5805,16 @@
         <v>16.666666666667</v>
       </c>
       <c r="BA15" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BB15" t="n">
-        <v>45.918367346939</v>
+        <v>46</v>
       </c>
       <c r="BC15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD15" t="n">
-        <v>42.465753424658</v>
+        <v>42.666666666667</v>
       </c>
       <c r="BE15" t="n">
         <v>14</v>
@@ -5823,10 +5823,10 @@
         <v>56</v>
       </c>
       <c r="BG15" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="BH15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI15" t="n">
         <v>1</v>
@@ -5847,22 +5847,22 @@
         <v>4</v>
       </c>
       <c r="BO15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>109.1</v>
+        <v>115.2</v>
       </c>
       <c r="BR15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         <v>2</v>
       </c>
       <c r="CC15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CD15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CK15" t="n">
         <v>3</v>
@@ -5940,10 +5940,10 @@
         <v>12</v>
       </c>
       <c r="CT15" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CU15" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CV15" t="n">
         <v>11</v>
@@ -5961,10 +5961,10 @@
         <v>38</v>
       </c>
       <c r="DA15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DB15" t="n">
-        <v>67.857142857143</v>
+        <v>68.965517241379</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="DG15" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6017,16 +6017,16 @@
         <v>831799</v>
       </c>
       <c r="E16" t="n">
-        <v>6.6357142857143</v>
+        <v>6.6333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6035,13 +6035,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0312</v>
+        <v>0.0524</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -6083,67 +6083,67 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.72448311</v>
+        <v>0.79934231</v>
       </c>
       <c r="AB16" t="n">
-        <v>526</v>
+        <v>617</v>
       </c>
       <c r="AC16" t="n">
         <v>2</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="AF16" t="n">
-        <v>80.769230769231</v>
+        <v>80.612244897959</v>
       </c>
       <c r="AG16" t="n">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="AH16" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AI16" t="n">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="AJ16" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>35.714285714286</v>
+        <v>43.75</v>
       </c>
       <c r="AM16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN16" t="n">
-        <v>30.434782608696</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
       </c>
       <c r="AR16" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AS16" t="n">
         <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV16" t="n">
         <v>1</v>
@@ -6155,22 +6155,22 @@
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ16" t="n">
-        <v>36.363636363636</v>
+        <v>56.25</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>36.363636363636</v>
+        <v>41.095890410959</v>
       </c>
       <c r="BC16" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BD16" t="n">
-        <v>39.622641509434</v>
+        <v>45</v>
       </c>
       <c r="BE16" t="n">
         <v>3</v>
@@ -6179,10 +6179,10 @@
         <v>23.076923076923</v>
       </c>
       <c r="BG16" t="n">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="BH16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI16" t="n">
         <v>1</v>
@@ -6203,22 +6203,22 @@
         <v>3</v>
       </c>
       <c r="BO16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>92.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="BR16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6239,16 +6239,16 @@
         <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB16" t="n">
         <v>4</v>
       </c>
       <c r="CC16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CD16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CK16" t="n">
         <v>2</v>
@@ -6290,16 +6290,16 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="CT16" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CU16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CV16" t="n">
         <v>10</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="DA16" t="n">
         <v>9</v>
       </c>
       <c r="DB16" t="n">
-        <v>56.25</v>
+        <v>52.941176470588</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="DG16" t="n">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6373,16 +6373,16 @@
         <v>353138</v>
       </c>
       <c r="E17" t="n">
-        <v>7.0315789473684</v>
+        <v>7.005</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
         <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>1591</v>
+        <v>1618</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6439,10 +6439,10 @@
         <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.6524852</v>
+        <v>2.65471928</v>
       </c>
       <c r="AB17" t="n">
-        <v>1416</v>
+        <v>1429</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -6451,28 +6451,28 @@
         <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="AF17" t="n">
-        <v>89.252336448598</v>
+        <v>89.38134810711</v>
       </c>
       <c r="AG17" t="n">
-        <v>1070</v>
+        <v>1083</v>
       </c>
       <c r="AH17" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AI17" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AJ17" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK17" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AL17" t="n">
-        <v>62.5</v>
+        <v>64.473684210526</v>
       </c>
       <c r="AM17" t="n">
         <v>6</v>
@@ -6490,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS17" t="n">
         <v>14</v>
@@ -6520,13 +6520,13 @@
         <v>66</v>
       </c>
       <c r="BB17" t="n">
-        <v>53.658536585366</v>
+        <v>53.225806451613</v>
       </c>
       <c r="BC17" t="n">
         <v>60</v>
       </c>
       <c r="BD17" t="n">
-        <v>56.603773584906</v>
+        <v>56.07476635514</v>
       </c>
       <c r="BE17" t="n">
         <v>6</v>
@@ -6538,7 +6538,7 @@
         <v>191</v>
       </c>
       <c r="BH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI17" t="n">
         <v>9</v>
@@ -6547,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="BK17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6559,16 +6559,16 @@
         <v>6</v>
       </c>
       <c r="BO17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>133.6</v>
+        <v>140.1</v>
       </c>
       <c r="BR17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS17" t="n">
         <v>3</v>
@@ -6601,10 +6601,10 @@
         <v>5</v>
       </c>
       <c r="CC17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CD17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK17" t="n">
         <v>2</v>
@@ -6655,7 +6655,7 @@
         <v>29</v>
       </c>
       <c r="CU17" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CV17" t="n">
         <v>11</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="DA17" t="n">
         <v>26</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="DG17" t="n">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="DH17" t="n">
         <v>1</v>
@@ -6729,16 +6729,16 @@
         <v>580550</v>
       </c>
       <c r="E18" t="n">
-        <v>6.78</v>
+        <v>6.7090909090909</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>777</v>
+        <v>840</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6747,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.075</v>
+        <v>0.2016</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -6795,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.22756457</v>
+        <v>0.23571092</v>
       </c>
       <c r="AB18" t="n">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -6807,28 +6807,28 @@
         <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="AF18" t="n">
-        <v>88.657844990548</v>
+        <v>88.400702987698</v>
       </c>
       <c r="AG18" t="n">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="AH18" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="AI18" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="AJ18" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AL18" t="n">
-        <v>60.43956043956</v>
+        <v>63.366336633663</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6837,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
@@ -6852,16 +6852,16 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" t="n">
         <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -6873,16 +6873,16 @@
         <v>100</v>
       </c>
       <c r="BA18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB18" t="n">
-        <v>43.859649122807</v>
+        <v>44.067796610169</v>
       </c>
       <c r="BC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD18" t="n">
-        <v>41.379310344828</v>
+        <v>41.935483870968</v>
       </c>
       <c r="BE18" t="n">
         <v>13</v>
@@ -6891,10 +6891,10 @@
         <v>46.428571428571</v>
       </c>
       <c r="BG18" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BH18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI18" t="n">
         <v>4</v>
@@ -6915,22 +6915,22 @@
         <v>3</v>
       </c>
       <c r="BO18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>67.8</v>
+        <v>73.8</v>
       </c>
       <c r="BR18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA18" t="n">
         <v>1</v>
@@ -6957,10 +6957,10 @@
         <v>1</v>
       </c>
       <c r="CC18" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="CD18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>2</v>
       </c>
       <c r="CU18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CV18" t="n">
         <v>15</v>
@@ -7026,13 +7026,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="DA18" t="n">
         <v>4</v>
       </c>
       <c r="DB18" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="DC18" t="n">
         <v>1</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="DG18" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="DH18" t="n">
         <v>5</v>
@@ -7085,16 +7085,16 @@
         <v>787751</v>
       </c>
       <c r="E19" t="n">
-        <v>6.8647058823529</v>
+        <v>6.85</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
         <v>11</v>
       </c>
       <c r="H19" t="n">
-        <v>1154</v>
+        <v>1188</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0.4357</v>
       </c>
       <c r="L19" t="n">
-        <v>1154</v>
+        <v>1188</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -7151,10 +7151,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2530802</v>
+        <v>0.25901027</v>
       </c>
       <c r="AB19" t="n">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7163,37 +7163,37 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="AF19" t="n">
-        <v>91.089108910891</v>
+        <v>90.994623655914</v>
       </c>
       <c r="AG19" t="n">
-        <v>707</v>
+        <v>744</v>
       </c>
       <c r="AH19" t="n">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="AI19" t="n">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="AJ19" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>36.170212765957</v>
+        <v>38.888888888889</v>
       </c>
       <c r="AM19" t="n">
         <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
@@ -7202,13 +7202,13 @@
         <v>3</v>
       </c>
       <c r="AR19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AS19" t="n">
         <v>6</v>
       </c>
       <c r="AT19" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -7229,31 +7229,31 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>61.538461538462</v>
+        <v>62.037037037037</v>
       </c>
       <c r="BC19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD19" t="n">
-        <v>60.78431372549</v>
+        <v>60.377358490566</v>
       </c>
       <c r="BE19" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BF19" t="n">
-        <v>62.264150943396</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BG19" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BH19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI19" t="n">
         <v>13</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>12</v>
       </c>
       <c r="BJ19" t="n">
         <v>1</v>
@@ -7271,22 +7271,22 @@
         <v>3</v>
       </c>
       <c r="BO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>116.7</v>
+        <v>123.3</v>
       </c>
       <c r="BR19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS19" t="n">
         <v>1</v>
       </c>
       <c r="BT19" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7313,29 +7313,29 @@
         <v>0</v>
       </c>
       <c r="CC19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
         <v>11</v>
       </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>10</v>
-      </c>
       <c r="CK19" t="n">
         <v>2</v>
       </c>
@@ -7364,10 +7364,10 @@
         <v>2</v>
       </c>
       <c r="CT19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CU19" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CV19" t="n">
         <v>20</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="DA19" t="n">
         <v>10</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="DG19" t="n">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7441,16 +7441,16 @@
         <v>325355</v>
       </c>
       <c r="E20" t="n">
-        <v>7.0125</v>
+        <v>6.9777777777778</v>
       </c>
       <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
         <v>9</v>
       </c>
-      <c r="G20" t="n">
-        <v>8</v>
-      </c>
       <c r="H20" t="n">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7459,16 +7459,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.319</v>
+        <v>1.4048</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2321383</v>
+        <v>0.2489207</v>
       </c>
       <c r="AB20" t="n">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,28 +7519,28 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="AF20" t="n">
-        <v>89.783889980354</v>
+        <v>90</v>
       </c>
       <c r="AG20" t="n">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="AH20" t="n">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="AI20" t="n">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="AJ20" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>54.761904761905</v>
+        <v>57.692307692308</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7549,22 +7549,22 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AS20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT20" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AU20" t="n">
         <v>1</v>
@@ -7579,37 +7579,37 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BB20" t="n">
-        <v>48.235294117647</v>
+        <v>47.872340425532</v>
       </c>
       <c r="BC20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
-        <v>45.945945945946</v>
+        <v>48.837209302326</v>
       </c>
       <c r="BE20" t="n">
         <v>24</v>
       </c>
       <c r="BF20" t="n">
-        <v>50</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BG20" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="BH20" t="n">
         <v>13</v>
       </c>
       <c r="BI20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7627,22 +7627,22 @@
         <v>5</v>
       </c>
       <c r="BO20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>56.1</v>
+        <v>62.8</v>
       </c>
       <c r="BR20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA20" t="n">
         <v>0</v>
@@ -7669,10 +7669,10 @@
         <v>1</v>
       </c>
       <c r="CC20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CD20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CK20" t="n">
         <v>1</v>
@@ -7717,16 +7717,16 @@
         <v>0</v>
       </c>
       <c r="CS20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT20" t="n">
         <v>0</v>
       </c>
       <c r="CU20" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="CV20" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="DA20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB20" t="n">
-        <v>45.454545454545</v>
+        <v>46.153846153846</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="DG20" t="n">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="DH20" t="n">
         <v>1</v>
       </c>
       <c r="DI20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DJ20" t="n">
         <v>2376216</v>
@@ -8509,16 +8509,16 @@
         <v>69768</v>
       </c>
       <c r="E23" t="n">
-        <v>7.1045454545455</v>
+        <v>7.1130434782609</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0212688</v>
+        <v>0.02196815</v>
       </c>
       <c r="AB23" t="n">
-        <v>830</v>
+        <v>875</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8585,28 +8585,28 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="AF23" t="n">
-        <v>74.153846153846</v>
+        <v>74.631268436578</v>
       </c>
       <c r="AG23" t="n">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="AH23" t="n">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="AI23" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AL23" t="n">
-        <v>47.151898734177</v>
+        <v>47.865853658537</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AS23" t="n">
         <v>2</v>
@@ -8651,16 +8651,16 @@
         <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
-        <v>66.666666666667</v>
+        <v>70</v>
       </c>
       <c r="BC23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BE23" t="n">
         <v>4</v>
@@ -8669,13 +8669,13 @@
         <v>80</v>
       </c>
       <c r="BG23" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
       </c>
       <c r="BI23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ23" t="n">
         <v>0</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BN23" t="n">
         <v>9</v>
       </c>
       <c r="BO23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>156.3</v>
+        <v>163.6</v>
       </c>
       <c r="BR23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8735,28 +8735,28 @@
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="CD23" t="n">
+        <v>37</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH23" t="n">
         <v>34</v>
       </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>30</v>
-      </c>
       <c r="CI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CJ23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CK23" t="n">
         <v>4</v>
@@ -8771,7 +8771,7 @@
         <v>10</v>
       </c>
       <c r="CO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="DA23" t="n">
         <v>0</v>
@@ -8822,13 +8822,13 @@
         <v>8</v>
       </c>
       <c r="DF23" t="n">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="DG23" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="DH23" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="DI23" t="n">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>1.8099</v>
+        <v>1.7272</v>
       </c>
     </row>
     <row r="24">
